--- a/biology/Botanique/Théâtre_d'été_d'Heinola/Théâtre_d'été_d'Heinola.xlsx
+++ b/biology/Botanique/Théâtre_d'été_d'Heinola/Théâtre_d'été_d'Heinola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_d%27%C3%A9t%C3%A9_d%27Heinola</t>
+          <t>Théâtre_d'été_d'Heinola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le théâtre d'été d'Heinola (finnois : Heinolan kesäteatteri) est un théâtre de plein-air construit à Heinola en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le théâtre d'été d'Heinola (finnois : Heinolan kesäteatteri) est un théâtre de plein-air construit à Heinola en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_d%27%C3%A9t%C3%A9_d%27Heinola</t>
+          <t>Théâtre_d'été_d'Heinola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit en 2000 dans le parc Rantapuisto sur les rives du fleuve Kymijoki, le théâtre est la propriété de la ville.
 Avec le musée d'art d'Heinola et la maison WPK, il forme un groupe architectural. 
